--- a/biology/Médecine/Manipulation_anatomico-thérapeutique/Manipulation_anatomico-thérapeutique.xlsx
+++ b/biology/Médecine/Manipulation_anatomico-thérapeutique/Manipulation_anatomico-thérapeutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manipulation_anatomico-th%C3%A9rapeutique</t>
+          <t>Manipulation_anatomico-thérapeutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La manipulation anatomico-thérapeutique est utilisée en ostéopathie pour débloquer mécaniquement un groupe de vertèbres en utilisant comme long bras de levier les vertèbres sus ou sous jacentes et en emmenant d’abord toutes leurs articulations en « flottement » par vive torsion au-delà de leur limite physiologique articulaire pour les ramener très vite en place.
 Dans la manipulation, on augmente d’abord brusquement la lésion des articulations bloquées (sans aller tout de même jusqu'à la luxation) afin de réduire un déplacement osseux et ramener une mobilité normale dans une région vertébrale douloureuse.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manipulation_anatomico-th%C3%A9rapeutique</t>
+          <t>Manipulation_anatomico-thérapeutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Manipulation vertébrale
 Manipulations articulaires
